--- a/assets/Parts Follow Up Template.xlsx
+++ b/assets/Parts Follow Up Template.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pearsonpackaging-my.sharepoint.com/personal/bthall_pearsonpkg_com/Documents/Desktop/Parts Follow Up/2026/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="789" documentId="8_{E6A18B93-A52F-4313-98CD-AC9D0D730CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C1EF82-DD74-4164-B604-910394A51C04}"/>
+  <xr:revisionPtr revIDLastSave="795" documentId="8_{E6A18B93-A52F-4313-98CD-AC9D0D730CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C5B2F14-4F7D-4F36-8DCE-850848E0D2BC}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="RQsq4yYhj4F/02jKig+fa+F8K6BanCMBwrDc20A4p2C609exuSHfLO7WZykz5jc9VceSmc6Dfwhr6Vmlg24GHw==" workbookSaltValue="b/fpchlDb62rdG8f5eE/5g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="685" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Allocation" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_Hlk212526893">'Brent Schrader'!$G$35</definedName>
+    <definedName name="_Hlk212526893">'Brent Schrader'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -210,7 +210,7 @@
     <numFmt numFmtId="165" formatCode="\(000\)\ 000\-0000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,12 +290,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -303,13 +297,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -409,7 +396,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -503,14 +490,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -528,7 +510,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -539,7 +520,6 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -555,26 +535,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1337,10 +1305,10 @@
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
 <namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <namedSheetView name="View1" id="{6ABB65C2-7B51-4C78-8BAC-1EE1A411C7ED}">
-    <nsvFilter filterId="{17D7C0DC-915A-49FC-91FA-EE96535CFF25}" ref="A1:M7" tableId="8">
+    <nsvFilter filterId="{17D7C0DC-915A-49FC-91FA-EE96535CFF25}" ref="A1:M5" tableId="8">
       <sortRules>
         <sortRule colId="2" id="{85FF137E-8F0E-4E02-B30E-F4E24D826FD2}">
-          <sortCondition ref="C1:C7"/>
+          <sortCondition ref="C1:C5"/>
         </sortRule>
       </sortRules>
     </nsvFilter>
@@ -1407,8 +1375,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F16D9F14-BB8E-4632-BBF8-7A0182267B88}" name="Tami" displayName="Tami" ref="A1:M18" totalsRowShown="0" dataDxfId="62">
-  <autoFilter ref="A1:M18" xr:uid="{F16D9F14-BB8E-4632-BBF8-7A0182267B88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F16D9F14-BB8E-4632-BBF8-7A0182267B88}" name="Tami" displayName="Tami" ref="A1:M4" totalsRowShown="0" dataDxfId="62">
+  <autoFilter ref="A1:M4" xr:uid="{F16D9F14-BB8E-4632-BBF8-7A0182267B88}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{E311C5CD-BE82-48D6-96D3-727E3420FBEA}" name="Quote Number" dataDxfId="61"/>
     <tableColumn id="2" xr3:uid="{2CA5C3FE-E06A-4DC1-91DC-F521B751CB45}" name="Cust. Name" dataDxfId="60"/>
@@ -1429,10 +1397,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D4A3F8D2-1C5C-4A7F-B844-8C5C7EE718C0}" name="Brent" displayName="Brent" ref="A1:M79" totalsRowShown="0">
-  <autoFilter ref="A1:M79" xr:uid="{D4A3F8D2-1C5C-4A7F-B844-8C5C7EE718C0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M79">
-    <sortCondition ref="D1:D79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D4A3F8D2-1C5C-4A7F-B844-8C5C7EE718C0}" name="Brent" displayName="Brent" ref="A1:M7" totalsRowShown="0">
+  <autoFilter ref="A1:M7" xr:uid="{D4A3F8D2-1C5C-4A7F-B844-8C5C7EE718C0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M7">
+    <sortCondition ref="D1:D7"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{97E8A94E-E514-447B-BCF9-DA85B207BBCB}" name="Quote Number" dataDxfId="48"/>
@@ -1454,8 +1422,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{957A11F8-E6F6-485C-9446-85740BC25841}" name="Eric" displayName="Eric" ref="A1:M49" totalsRowShown="0" dataDxfId="40">
-  <autoFilter ref="A1:M49" xr:uid="{957A11F8-E6F6-485C-9446-85740BC25841}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{957A11F8-E6F6-485C-9446-85740BC25841}" name="Eric" displayName="Eric" ref="A1:M6" totalsRowShown="0" dataDxfId="40">
+  <autoFilter ref="A1:M6" xr:uid="{957A11F8-E6F6-485C-9446-85740BC25841}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{EFEF7828-7603-4E20-9709-3E9243152FB0}" name="Quote Number" dataDxfId="39"/>
     <tableColumn id="2" xr3:uid="{20054C0B-756F-4FFF-8DD6-901AB90A03D7}" name="Cust. Name" dataDxfId="38"/>
@@ -1476,10 +1444,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2E509AE-E534-4C23-8EF6-75215EB6B32D}" name="LuWanna" displayName="LuWanna" ref="A1:M69" totalsRowShown="0">
-  <autoFilter ref="A1:M69" xr:uid="{C2E509AE-E534-4C23-8EF6-75215EB6B32D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M69">
-    <sortCondition ref="J1:J69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2E509AE-E534-4C23-8EF6-75215EB6B32D}" name="LuWanna" displayName="LuWanna" ref="A1:M4" totalsRowShown="0">
+  <autoFilter ref="A1:M4" xr:uid="{C2E509AE-E534-4C23-8EF6-75215EB6B32D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M4">
+    <sortCondition ref="J1:J4"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{687C0256-1CA3-45E6-B447-270F75795071}" name="Quote Number"/>
@@ -1501,8 +1469,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{17D7C0DC-915A-49FC-91FA-EE96535CFF25}" name="Reid" displayName="Reid" ref="A1:M7" totalsRowShown="0" headerRowDxfId="18">
-  <autoFilter ref="A1:M7" xr:uid="{17D7C0DC-915A-49FC-91FA-EE96535CFF25}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{17D7C0DC-915A-49FC-91FA-EE96535CFF25}" name="Reid" displayName="Reid" ref="A1:M5" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A1:M5" xr:uid="{17D7C0DC-915A-49FC-91FA-EE96535CFF25}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M4">
     <sortCondition descending="1" ref="C1:C4"/>
   </sortState>
@@ -1833,7 +1801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M250"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
@@ -1897,7 +1865,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="e" cm="1" vm="1">
-        <f t="array" ref="A2">IF(_xlfn.VSTACK(_xlfn._xlws.FILTER('Tami Knoell'!A2:M513,'Tami Knoell'!A2:A513&lt;&gt;""),_xlfn._xlws.FILTER('Brent Schrader'!A2:M547,'Brent Schrader'!A2:A547&lt;&gt;""),_xlfn._xlws.FILTER('Eric Simpson'!A2:M529,'Eric Simpson'!A2:A529&lt;&gt;""),_xlfn._xlws.FILTER('LuWanna Morris'!A4:M427,'LuWanna Morris'!A4:A427&lt;&gt;""),_xlfn._xlws.FILTER('Reid Kincaid'!A2:M494,'Reid Kincaid'!A2:A494&lt;&gt;""))="","",_xlfn.VSTACK(_xlfn._xlws.FILTER('Tami Knoell'!A2:M513,'Tami Knoell'!A2:A513&lt;&gt;""),_xlfn._xlws.FILTER('Brent Schrader'!A2:M547,'Brent Schrader'!A2:A547&lt;&gt;""),_xlfn._xlws.FILTER('Eric Simpson'!A2:M529,'Eric Simpson'!A2:A529&lt;&gt;""),_xlfn._xlws.FILTER('LuWanna Morris'!A4:M427,'LuWanna Morris'!A4:A427&lt;&gt;""),_xlfn._xlws.FILTER('Reid Kincaid'!A2:M494,'Reid Kincaid'!A2:A494&lt;&gt;"")))</f>
+        <f t="array" ref="A2">IF(_xlfn.VSTACK(_xlfn._xlws.FILTER('Tami Knoell'!A2:M499,'Tami Knoell'!A2:A499&lt;&gt;""),_xlfn._xlws.FILTER('Brent Schrader'!A2:M475,'Brent Schrader'!A2:A475&lt;&gt;""),_xlfn._xlws.FILTER('Eric Simpson'!A2:M486,'Eric Simpson'!A2:A486&lt;&gt;""),_xlfn._xlws.FILTER('LuWanna Morris'!A4:M362,'LuWanna Morris'!A4:A362&lt;&gt;""),_xlfn._xlws.FILTER('Reid Kincaid'!A2:M492,'Reid Kincaid'!A2:A492&lt;&gt;""))="","",_xlfn.VSTACK(_xlfn._xlws.FILTER('Tami Knoell'!A2:M499,'Tami Knoell'!A2:A499&lt;&gt;""),_xlfn._xlws.FILTER('Brent Schrader'!A2:M475,'Brent Schrader'!A2:A475&lt;&gt;""),_xlfn._xlws.FILTER('Eric Simpson'!A2:M486,'Eric Simpson'!A2:A486&lt;&gt;""),_xlfn._xlws.FILTER('LuWanna Morris'!A4:M362,'LuWanna Morris'!A4:A362&lt;&gt;""),_xlfn._xlws.FILTER('Reid Kincaid'!A2:M492,'Reid Kincaid'!A2:A492&lt;&gt;"")))</f>
         <v>#VALUE!</v>
       </c>
       <c r="K2" s="20"/>
@@ -2654,10 +2622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2721,235 +2689,54 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C2" s="15"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="55"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="51"/>
       <c r="K2" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="74"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="65"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C3" s="15"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="75"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C4" s="15"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="51"/>
       <c r="K4" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="74"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="15"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="75"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="15"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="55"/>
-      <c r="M6" s="74"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="65"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="15"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="75"/>
+      <c r="B7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <f>SUM(Tami[Quote Amount])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="15"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C9" s="15"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="15"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="55"/>
-      <c r="M10" s="74"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C11" s="15"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="75"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="15"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="55"/>
-      <c r="M12" s="74"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="15"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="54"/>
-      <c r="M13" s="75"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="55"/>
-      <c r="M14" s="74"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="54"/>
-      <c r="M15" s="75"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C16" s="15"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="55"/>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="15"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="42"/>
-      <c r="J17"/>
-      <c r="K17" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="C18" s="15"/>
-      <c r="F18"/>
-      <c r="G18" s="26"/>
-      <c r="H18"/>
-      <c r="I18" s="42"/>
-      <c r="J18"/>
-      <c r="K18" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2">
-        <f>SUM(Tami[Quote Amount])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H22" s="1"/>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2961,10 +2748,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M78"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3029,7 +2816,7 @@
       <c r="C2" s="15"/>
       <c r="D2" s="21"/>
       <c r="G2" s="26"/>
-      <c r="I2" s="43"/>
+      <c r="I2" s="42"/>
       <c r="K2" s="20" t="b">
         <v>0</v>
       </c>
@@ -3038,7 +2825,7 @@
       <c r="C3" s="15"/>
       <c r="D3" s="21"/>
       <c r="G3" s="26"/>
-      <c r="I3" s="43"/>
+      <c r="I3" s="42"/>
       <c r="K3" s="20" t="b">
         <v>0</v>
       </c>
@@ -3046,8 +2833,8 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C4" s="15"/>
       <c r="D4" s="21"/>
-      <c r="G4" s="57"/>
-      <c r="I4" s="43"/>
+      <c r="G4" s="53"/>
+      <c r="I4" s="42"/>
       <c r="K4" s="20" t="b">
         <v>0</v>
       </c>
@@ -3055,9 +2842,9 @@
     <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="15"/>
       <c r="D5" s="21"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="43"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="42"/>
       <c r="K5" s="20" t="b">
         <v>0</v>
       </c>
@@ -3066,730 +2853,24 @@
       <c r="C6" s="15"/>
       <c r="D6" s="21"/>
       <c r="G6" s="26"/>
-      <c r="I6" s="43"/>
+      <c r="I6" s="42"/>
       <c r="K6" s="20" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="15"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="21"/>
-      <c r="G7" s="26"/>
-      <c r="I7" s="43"/>
+      <c r="G7" s="49"/>
       <c r="K7" s="20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="15"/>
-      <c r="D8" s="21"/>
-      <c r="G8" s="52"/>
-      <c r="I8" s="43"/>
-      <c r="K8" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="15"/>
-      <c r="D9" s="21"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="43"/>
-      <c r="K9" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="15"/>
-      <c r="D10" s="21"/>
-      <c r="G10" s="62"/>
-      <c r="I10" s="43"/>
-      <c r="K10" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C11" s="15"/>
-      <c r="D11" s="21"/>
-      <c r="G11" s="62"/>
-      <c r="I11" s="43"/>
-      <c r="K11" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="15"/>
-      <c r="D12" s="21"/>
-      <c r="G12" s="62"/>
-      <c r="I12" s="43"/>
-      <c r="K12" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="15"/>
-      <c r="D13" s="21"/>
-      <c r="G13" s="62"/>
-      <c r="I13" s="43"/>
-      <c r="K13" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
-      <c r="D14" s="21"/>
-      <c r="G14" s="62"/>
-      <c r="I14" s="43"/>
-      <c r="K14" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
-      <c r="D15" s="21"/>
-      <c r="G15" s="26"/>
-      <c r="I15" s="43"/>
-      <c r="K15" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C16" s="15"/>
-      <c r="D16" s="21"/>
-      <c r="G16" s="52"/>
-      <c r="I16" s="43"/>
-      <c r="K16" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="15"/>
-      <c r="D17" s="21"/>
-      <c r="G17" s="70"/>
-      <c r="I17" s="43"/>
-      <c r="K17" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="15"/>
-      <c r="D18" s="21"/>
-      <c r="G18" s="52"/>
-      <c r="I18" s="43"/>
-      <c r="K18" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="15"/>
-      <c r="D19" s="21"/>
-      <c r="G19" s="52"/>
-      <c r="K19" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C20" s="15"/>
-      <c r="D20" s="21"/>
-      <c r="F20" s="76"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="K20" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C21" s="15"/>
-      <c r="D21" s="21"/>
-      <c r="F21" s="76"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="K21" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C22" s="15"/>
-      <c r="D22" s="21"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="69"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="K22" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C23" s="15"/>
-      <c r="D23" s="21"/>
-      <c r="F23" s="76"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="K23" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C24" s="15"/>
-      <c r="D24" s="21"/>
-      <c r="F24" s="76"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="K24" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C25" s="15"/>
-      <c r="D25" s="21"/>
-      <c r="G25" s="70"/>
-      <c r="I25" s="43"/>
-      <c r="K25" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C26" s="15"/>
-      <c r="D26" s="21"/>
-      <c r="G26" s="26"/>
-      <c r="K26" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C27" s="15"/>
-      <c r="D27" s="21"/>
-      <c r="F27" s="76"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="K27" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C28" s="15"/>
-      <c r="D28" s="21"/>
-      <c r="F28" s="76"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="K28" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C29" s="15"/>
-      <c r="D29" s="21"/>
-      <c r="G29" s="53"/>
-      <c r="K29" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C30" s="15"/>
-      <c r="D30" s="21"/>
-      <c r="F30" s="76"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="K30" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C31" s="15"/>
-      <c r="D31" s="21"/>
-      <c r="G31" s="62"/>
-      <c r="I31" s="43"/>
-      <c r="K31" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C32" s="15"/>
-      <c r="D32" s="21"/>
-      <c r="G32" s="62"/>
-      <c r="I32" s="43"/>
-      <c r="K32" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C33" s="15"/>
-      <c r="D33" s="21"/>
-      <c r="G33" s="62"/>
-      <c r="I33" s="43"/>
-      <c r="K33" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C34" s="15"/>
-      <c r="D34" s="21"/>
-      <c r="G34" s="26"/>
-      <c r="I34" s="43"/>
-      <c r="K34" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C35" s="15"/>
-      <c r="D35" s="21"/>
-      <c r="G35" s="26"/>
-      <c r="K35" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C36" s="15"/>
-      <c r="D36" s="21"/>
-      <c r="G36" s="26"/>
-      <c r="K36" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C37" s="15"/>
-      <c r="D37" s="21"/>
-      <c r="F37" s="76"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="K37" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37"/>
-    </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C38" s="15"/>
-      <c r="D38" s="21"/>
-      <c r="F38" s="76"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="K38" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38"/>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C39" s="15"/>
-      <c r="D39" s="21"/>
-      <c r="F39" s="76"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="K39" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39"/>
-    </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C40" s="15"/>
-      <c r="D40" s="21"/>
-      <c r="F40" s="76"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="K40" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40"/>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C41" s="15"/>
-      <c r="D41" s="21"/>
-      <c r="F41" s="76"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="K41" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41"/>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C42" s="15"/>
-      <c r="D42" s="21"/>
-      <c r="F42" s="76"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="K42" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42"/>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C43" s="15"/>
-      <c r="D43" s="21"/>
-      <c r="G43" s="62"/>
-      <c r="I43" s="43"/>
-      <c r="K43" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C44" s="15"/>
-      <c r="D44" s="21"/>
-      <c r="G44" s="62"/>
-      <c r="I44" s="43"/>
-      <c r="K44" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C45" s="15"/>
-      <c r="D45" s="21"/>
-      <c r="G45" s="62"/>
-      <c r="I45" s="43"/>
-      <c r="K45" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C46" s="15"/>
-      <c r="D46" s="21"/>
-      <c r="F46" s="76"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="K46" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M46"/>
-    </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C47" s="15"/>
-      <c r="D47" s="21"/>
-      <c r="F47" s="76"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="K47" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M47"/>
-    </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C48" s="15"/>
-      <c r="D48" s="21"/>
-      <c r="F48" s="76"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="K48" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C49" s="15"/>
-      <c r="D49" s="21"/>
-      <c r="G49" s="62"/>
-      <c r="I49" s="43"/>
-      <c r="K49" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C50" s="15"/>
-      <c r="D50" s="21"/>
-      <c r="G50" s="62"/>
-      <c r="I50" s="43"/>
-      <c r="K50" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C51" s="15"/>
-      <c r="D51" s="21"/>
-      <c r="G51" s="53"/>
-      <c r="I51" s="43"/>
-      <c r="K51" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C52" s="15"/>
-      <c r="D52" s="21"/>
-      <c r="G52" s="52"/>
-      <c r="K52" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C53" s="15"/>
-      <c r="D53" s="21"/>
-      <c r="G53" s="71"/>
-      <c r="K53" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C54" s="15"/>
-      <c r="D54" s="21"/>
-      <c r="G54" s="71"/>
-      <c r="K54" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C55" s="15"/>
-      <c r="D55" s="21"/>
-      <c r="F55" s="76"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="K55" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M55"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C56" s="15"/>
-      <c r="D56" s="21"/>
-      <c r="F56" s="76"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="K56" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C57" s="15"/>
-      <c r="D57" s="21"/>
-      <c r="F57" s="76"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="K57" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M57"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C58" s="15"/>
-      <c r="D58" s="21"/>
-      <c r="F58" s="76"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="K58" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M58"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C59" s="15"/>
-      <c r="D59" s="21"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="62"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="K59" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M59"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C60" s="15"/>
-      <c r="D60" s="21"/>
-      <c r="F60" s="76"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="K60" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M60"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C61" s="15"/>
-      <c r="D61" s="21"/>
-      <c r="G61" s="71"/>
-      <c r="I61" s="43"/>
-      <c r="K61" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C62" s="15"/>
-      <c r="D62" s="21"/>
-      <c r="G62" s="71"/>
-      <c r="I62" s="43"/>
-      <c r="K62" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C63" s="15"/>
-      <c r="D63" s="21"/>
-      <c r="G63" s="71"/>
-      <c r="I63" s="43"/>
-      <c r="K63" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C64" s="15"/>
-      <c r="D64" s="21"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="62"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="K64" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M64"/>
-    </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C65" s="15"/>
-      <c r="D65" s="21"/>
-      <c r="F65" s="76"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="K65" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M65"/>
-    </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C66" s="15"/>
-      <c r="D66" s="21"/>
-      <c r="F66" s="76"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="K66" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M66"/>
-    </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C67" s="15"/>
-      <c r="D67" s="21"/>
-      <c r="G67" s="26"/>
-      <c r="I67" s="43"/>
-      <c r="K67" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C68" s="15"/>
-      <c r="D68" s="21"/>
-      <c r="G68" s="52"/>
-      <c r="K68" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C69" s="15"/>
-      <c r="D69" s="21"/>
-      <c r="G69" s="26"/>
-      <c r="K69" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C70" s="15"/>
-      <c r="D70" s="21"/>
-      <c r="G70" s="26"/>
-      <c r="K70" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C71" s="15"/>
-      <c r="D71" s="21"/>
-      <c r="G71" s="62"/>
-      <c r="K71" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C72" s="15"/>
-      <c r="D72" s="21"/>
-      <c r="F72" s="76"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="K72" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M72"/>
-    </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C73" s="15"/>
-      <c r="D73" s="21"/>
-      <c r="F73" s="76"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="K73" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M73"/>
-    </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C74" s="15"/>
-      <c r="D74" s="21"/>
-      <c r="F74" s="76"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="K74" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M74"/>
-    </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C75" s="15"/>
-      <c r="D75" s="21"/>
-      <c r="F75" s="76"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="K75" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M75"/>
-    </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C76" s="15"/>
-      <c r="D76" s="21"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="62"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="K76" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M76"/>
-    </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C77" s="15"/>
-      <c r="D77" s="21"/>
-      <c r="G77" s="26"/>
-      <c r="I77" s="43"/>
-      <c r="K77" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C78" s="15"/>
-      <c r="D78" s="21"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="69"/>
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="K78" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M78"/>
-    </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C79" s="1"/>
-      <c r="D79" s="21"/>
-      <c r="G79" s="52"/>
-      <c r="K79" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C10" s="2">
         <f>SUM(Brent[Quote Amount])</f>
         <v>0</v>
       </c>
@@ -3804,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B49" sqref="A49:XFD49"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3833,7 +2914,7 @@
       <c r="B1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="21" t="s">
@@ -3851,13 +2932,13 @@
       <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="48" t="s">
         <v>15</v>
       </c>
       <c r="L1" t="s">
@@ -3870,7 +2951,7 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C2" s="15"/>
       <c r="H2"/>
-      <c r="I2" s="61"/>
+      <c r="I2" s="57"/>
       <c r="J2"/>
       <c r="K2" s="32" t="b">
         <v>0</v>
@@ -3889,9 +2970,9 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C4" s="15"/>
-      <c r="G4" s="69"/>
+      <c r="G4" s="64"/>
       <c r="H4"/>
-      <c r="I4" s="61"/>
+      <c r="I4" s="57"/>
       <c r="J4"/>
       <c r="K4" s="32" t="b">
         <v>0</v>
@@ -3900,9 +2981,9 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C5" s="15"/>
-      <c r="G5" s="69"/>
+      <c r="F5" s="45"/>
       <c r="H5"/>
-      <c r="I5" s="61"/>
+      <c r="I5"/>
       <c r="J5"/>
       <c r="K5" s="32" t="b">
         <v>0</v>
@@ -3911,462 +2992,22 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C6" s="15"/>
-      <c r="H6"/>
-      <c r="I6" s="61"/>
-      <c r="J6"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="M6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="15"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="44"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="15"/>
-      <c r="H8"/>
-      <c r="I8" s="61"/>
-      <c r="J8"/>
-      <c r="K8" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C9" s="15"/>
-      <c r="H9"/>
-      <c r="I9" s="61"/>
-      <c r="J9"/>
-      <c r="K9" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="15"/>
-      <c r="H10"/>
-      <c r="I10" s="61"/>
-      <c r="J10"/>
-      <c r="K10" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C11" s="15"/>
-      <c r="H11"/>
-      <c r="I11" s="61"/>
-      <c r="J11"/>
-      <c r="K11" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="15"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="15"/>
-      <c r="H13"/>
-      <c r="I13" s="61"/>
-      <c r="J13"/>
-      <c r="K13" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
-      <c r="H14"/>
-      <c r="I14" s="61"/>
-      <c r="J14"/>
-      <c r="K14" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
-      <c r="H15"/>
-      <c r="I15" s="61"/>
-      <c r="J15"/>
-      <c r="K15" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C16" s="15"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="15"/>
-      <c r="H17"/>
-      <c r="I17" s="61"/>
-      <c r="J17"/>
-      <c r="K17" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="15"/>
-      <c r="H18"/>
-      <c r="I18" s="61"/>
-      <c r="J18"/>
-      <c r="K18" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="15"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C20" s="15"/>
-      <c r="H20"/>
-      <c r="I20" s="61"/>
-      <c r="J20"/>
-      <c r="K20" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C21" s="15"/>
-      <c r="H21"/>
-      <c r="I21" s="61"/>
-      <c r="J21"/>
-      <c r="K21" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C22" s="15"/>
-      <c r="H22"/>
-      <c r="I22" s="61"/>
-      <c r="J22"/>
-      <c r="K22" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C23" s="15"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C24" s="15"/>
-      <c r="H24"/>
-      <c r="I24" s="61"/>
-      <c r="J24"/>
-      <c r="K24" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C25" s="15"/>
-      <c r="H25"/>
-      <c r="I25" s="61"/>
-      <c r="J25"/>
-      <c r="K25" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C26" s="15"/>
-      <c r="H26"/>
-      <c r="I26" s="61"/>
-      <c r="J26"/>
-      <c r="K26" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C27" s="15"/>
-      <c r="H27"/>
-      <c r="I27" s="61"/>
-      <c r="J27"/>
-      <c r="K27" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C28" s="15"/>
-      <c r="H28"/>
-      <c r="I28" s="61"/>
-      <c r="J28"/>
-      <c r="K28" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C29" s="15"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C30" s="15"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C31" s="15"/>
-      <c r="H31"/>
-      <c r="I31" s="61"/>
-      <c r="J31"/>
-      <c r="K31" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C32" s="15"/>
-      <c r="H32"/>
-      <c r="I32" s="61"/>
-      <c r="J32"/>
-      <c r="K32" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C33" s="15"/>
-      <c r="H33"/>
-      <c r="I33" s="61"/>
-      <c r="J33"/>
-      <c r="K33" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C34" s="15"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C35" s="15"/>
-      <c r="H35"/>
-      <c r="I35" s="61"/>
-      <c r="J35"/>
-      <c r="K35" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C36" s="15"/>
-      <c r="H36"/>
-      <c r="I36" s="61"/>
-      <c r="J36"/>
-      <c r="K36" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C37" s="15"/>
-      <c r="H37"/>
-      <c r="I37" s="61"/>
-      <c r="J37"/>
-      <c r="K37" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C38" s="15"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C39" s="15"/>
-      <c r="H39"/>
-      <c r="I39" s="61"/>
-      <c r="J39"/>
-      <c r="K39" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C40" s="15"/>
-      <c r="H40"/>
-      <c r="I40" s="61"/>
-      <c r="J40"/>
-      <c r="K40" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C41" s="15"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C42" s="15"/>
-      <c r="H42"/>
-      <c r="I42" s="61"/>
-      <c r="J42"/>
-      <c r="K42" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C43" s="15"/>
-      <c r="H43"/>
-      <c r="I43" s="61"/>
-      <c r="J43"/>
-      <c r="K43" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C44" s="15"/>
-      <c r="H44"/>
-      <c r="I44" s="61"/>
-      <c r="J44"/>
-      <c r="K44" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M44"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C45" s="15"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M45"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="72"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="73"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="27"/>
-      <c r="M46" s="47"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C47" s="15"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" s="27"/>
-      <c r="M47" s="47"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C48" s="15"/>
-      <c r="F48" s="48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C49" s="15"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="27"/>
-      <c r="M49" s="47"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="16" t="s">
+      <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C8" s="1">
         <f>SUM(Eric[Quote Amount])</f>
         <v>0</v>
       </c>
@@ -4381,10 +3022,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M68"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4461,7 +3102,7 @@
       <c r="C3" s="15"/>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3" s="61"/>
+      <c r="I3" s="57"/>
       <c r="J3"/>
       <c r="K3" s="20" t="b">
         <v>0</v>
@@ -4469,717 +3110,20 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="15"/>
+      <c r="C4" s="1"/>
       <c r="F4" s="21"/>
-      <c r="G4" s="46"/>
       <c r="H4" s="24"/>
       <c r="K4" s="20" t="b">
         <v>0</v>
       </c>
       <c r="M4" s="21"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="15"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="15"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6"/>
-    </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="15"/>
-      <c r="F7" s="21"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7" s="61"/>
-      <c r="J7"/>
-      <c r="K7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="15"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C9" s="15"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9" s="61"/>
-      <c r="J9"/>
-      <c r="K9" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="15"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C11" s="15"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11" s="61"/>
-      <c r="J11"/>
-      <c r="K11" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="15"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12" s="61"/>
-      <c r="J12"/>
-      <c r="K12" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="15"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13" s="61"/>
-      <c r="J13"/>
-      <c r="K13" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
-      <c r="F14" s="21"/>
-      <c r="H14" s="24"/>
-      <c r="K14" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15" s="61"/>
-      <c r="J15"/>
-      <c r="K15" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C16" s="15"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16" s="61"/>
-      <c r="J16"/>
-      <c r="K16" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C17" s="15"/>
-      <c r="F17" s="21"/>
-      <c r="H17" s="24"/>
-      <c r="K17" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C18" s="15"/>
-      <c r="F18" s="21"/>
-      <c r="H18" s="24"/>
-      <c r="K18" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="15"/>
-      <c r="F19" s="21"/>
-      <c r="H19" s="24"/>
-      <c r="K19" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C20" s="15"/>
-      <c r="F20" s="21"/>
-      <c r="H20" s="24"/>
-      <c r="K20" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C21" s="15"/>
-      <c r="F21" s="21"/>
-      <c r="H21" s="24"/>
-      <c r="K21" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C22" s="15"/>
-      <c r="F22" s="21"/>
-      <c r="H22" s="24"/>
-      <c r="K22" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="21"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C23" s="15"/>
-      <c r="F23" s="21"/>
-      <c r="H23" s="24"/>
-      <c r="K23" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C24" s="15"/>
-      <c r="K24" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" s="21"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C25" s="15"/>
-      <c r="K25" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" s="21"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C26" s="15"/>
-      <c r="F26" s="21"/>
-      <c r="H26" s="24"/>
-      <c r="K26" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C27" s="15"/>
-      <c r="F27" s="21"/>
-      <c r="H27" s="24"/>
-      <c r="K27" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C28" s="15"/>
-      <c r="F28" s="21"/>
-      <c r="H28" s="24"/>
-      <c r="K28" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" s="21"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C29" s="15"/>
-      <c r="F29" s="21"/>
-      <c r="H29" s="24"/>
-      <c r="K29" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" s="21"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C30" s="15"/>
-      <c r="F30" s="21"/>
-      <c r="H30" s="24"/>
-      <c r="K30" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C31" s="15"/>
-      <c r="F31" s="21"/>
-      <c r="H31" s="24"/>
-      <c r="K31" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" s="21"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C32" s="15"/>
-      <c r="F32" s="21"/>
-      <c r="H32" s="24"/>
-      <c r="K32" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" s="21"/>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C33" s="15"/>
-      <c r="F33" s="21"/>
-      <c r="H33" s="24"/>
-      <c r="K33" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" s="21"/>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C34" s="15"/>
-      <c r="F34" s="21"/>
-      <c r="H34" s="24"/>
-      <c r="K34" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" s="21"/>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C35" s="15"/>
-      <c r="F35" s="21"/>
-      <c r="H35" s="24"/>
-      <c r="K35" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" s="21"/>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C36" s="15"/>
-      <c r="F36" s="21"/>
-      <c r="H36" s="24"/>
-      <c r="K36" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" s="21"/>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C37" s="15"/>
-      <c r="F37" s="21"/>
-      <c r="H37" s="24"/>
-      <c r="K37" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" s="21"/>
-    </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C38" s="15"/>
-      <c r="F38" s="21"/>
-      <c r="H38" s="24"/>
-      <c r="K38" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38" s="21"/>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C39" s="15"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39"/>
-    </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C40" s="15"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40"/>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C41" s="15"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41"/>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C42" s="15"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42"/>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C43" s="15"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43"/>
-    </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C44" s="15"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M44"/>
-    </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C45" s="15"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M45"/>
-    </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C46" s="15"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M46"/>
-    </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C47" s="15"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M47"/>
-    </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C48" s="15"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C49" s="15"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M49"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C50" s="15"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M50"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C51" s="15"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M51"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C52" s="15"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M52"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C53" s="15"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M53"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C54" s="15"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M54"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C55" s="15"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M55"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C56" s="15"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C57" s="15"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M57"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C58" s="15"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M58"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C59" s="15"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M59"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C60" s="15"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M60"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C61" s="15"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M61"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C62" s="15"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M62"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C63" s="15"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M63"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C64" s="15"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M64"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C65" s="15"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M65"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C66" s="15"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M66"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C67" s="15"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M67"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C68" s="15"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M68"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C69" s="1"/>
-      <c r="F69" s="21"/>
-      <c r="H69" s="24"/>
-      <c r="K69" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M69" s="21"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="2">
-        <f>SUM(C4:C71)</f>
+      <c r="C7" s="2">
+        <f>SUM(C4:C6)</f>
         <v>0</v>
       </c>
     </row>
@@ -5193,10 +3137,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5223,7 +3167,7 @@
       <c r="B1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="37" t="s">
@@ -5272,8 +3216,8 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C3"/>
       <c r="D3" s="3"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="69"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="64"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -5297,48 +3241,23 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C5"/>
       <c r="D5" s="3"/>
-      <c r="F5" s="63"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="68"/>
+      <c r="F5" s="58"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="63"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C6"/>
-      <c r="D6" s="3"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="68"/>
+      <c r="A6" s="43"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C7"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="63"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="68"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C7" s="1">
         <f>SUM(Reid[Quote Amount])</f>
         <v>0</v>
       </c>
@@ -5355,7 +3274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1B6A65-558B-4990-B93B-14FC80AB9C93}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -5472,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>COUNTA(_xlfn.UNIQUE('Reid Kincaid'!B2:B7))</f>
+        <f>COUNTA(_xlfn.UNIQUE('Reid Kincaid'!B2:B5))</f>
         <v>1</v>
       </c>
       <c r="D4" s="1">

--- a/assets/Parts Follow Up Template.xlsx
+++ b/assets/Parts Follow Up Template.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pearsonpackaging-my.sharepoint.com/personal/bthall_pearsonpkg_com/Documents/Desktop/Parts Follow Up/2026/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="795" documentId="8_{E6A18B93-A52F-4313-98CD-AC9D0D730CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C5B2F14-4F7D-4F36-8DCE-850848E0D2BC}"/>
+  <xr:revisionPtr revIDLastSave="836" documentId="8_{E6A18B93-A52F-4313-98CD-AC9D0D730CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9E7DFB8-78BF-4C33-9874-27251541DE59}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="RQsq4yYhj4F/02jKig+fa+F8K6BanCMBwrDc20A4p2C609exuSHfLO7WZykz5jc9VceSmc6Dfwhr6Vmlg24GHw==" workbookSaltValue="b/fpchlDb62rdG8f5eE/5g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="685" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Allocation" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
   <si>
     <t>Quote Number</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Tami Knoell</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Brent Schrader</t>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>Total by Follow Up Only</t>
+  </si>
+  <si>
+    <t>%/Total by FU</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -543,6 +543,72 @@
     <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1305,10 +1371,10 @@
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
 <namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <namedSheetView name="View1" id="{6ABB65C2-7B51-4C78-8BAC-1EE1A411C7ED}">
-    <nsvFilter filterId="{17D7C0DC-915A-49FC-91FA-EE96535CFF25}" ref="A1:M5" tableId="8">
+    <nsvFilter filterId="{17D7C0DC-915A-49FC-91FA-EE96535CFF25}" ref="A1:M65" tableId="8">
       <sortRules>
         <sortRule colId="2" id="{85FF137E-8F0E-4E02-B30E-F4E24D826FD2}">
-          <sortCondition ref="C1:C5"/>
+          <sortCondition ref="C1:C65"/>
         </sortRule>
       </sortRules>
     </nsvFilter>
@@ -1375,8 +1441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F16D9F14-BB8E-4632-BBF8-7A0182267B88}" name="Tami" displayName="Tami" ref="A1:M4" totalsRowShown="0" dataDxfId="62">
-  <autoFilter ref="A1:M4" xr:uid="{F16D9F14-BB8E-4632-BBF8-7A0182267B88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F16D9F14-BB8E-4632-BBF8-7A0182267B88}" name="Tami" displayName="Tami" ref="A1:M66" totalsRowShown="0" dataDxfId="62">
+  <autoFilter ref="A1:M66" xr:uid="{F16D9F14-BB8E-4632-BBF8-7A0182267B88}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{E311C5CD-BE82-48D6-96D3-727E3420FBEA}" name="Quote Number" dataDxfId="61"/>
     <tableColumn id="2" xr3:uid="{2CA5C3FE-E06A-4DC1-91DC-F521B751CB45}" name="Cust. Name" dataDxfId="60"/>
@@ -1397,10 +1463,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D4A3F8D2-1C5C-4A7F-B844-8C5C7EE718C0}" name="Brent" displayName="Brent" ref="A1:M7" totalsRowShown="0">
-  <autoFilter ref="A1:M7" xr:uid="{D4A3F8D2-1C5C-4A7F-B844-8C5C7EE718C0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M7">
-    <sortCondition ref="D1:D7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D4A3F8D2-1C5C-4A7F-B844-8C5C7EE718C0}" name="Brent" displayName="Brent" ref="A1:M97" totalsRowShown="0">
+  <autoFilter ref="A1:M97" xr:uid="{D4A3F8D2-1C5C-4A7F-B844-8C5C7EE718C0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M97">
+    <sortCondition ref="D1:D97"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{97E8A94E-E514-447B-BCF9-DA85B207BBCB}" name="Quote Number" dataDxfId="48"/>
@@ -1422,8 +1488,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{957A11F8-E6F6-485C-9446-85740BC25841}" name="Eric" displayName="Eric" ref="A1:M6" totalsRowShown="0" dataDxfId="40">
-  <autoFilter ref="A1:M6" xr:uid="{957A11F8-E6F6-485C-9446-85740BC25841}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{957A11F8-E6F6-485C-9446-85740BC25841}" name="Eric" displayName="Eric" ref="A1:M82" totalsRowShown="0" dataDxfId="40">
+  <autoFilter ref="A1:M82" xr:uid="{957A11F8-E6F6-485C-9446-85740BC25841}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{EFEF7828-7603-4E20-9709-3E9243152FB0}" name="Quote Number" dataDxfId="39"/>
     <tableColumn id="2" xr3:uid="{20054C0B-756F-4FFF-8DD6-901AB90A03D7}" name="Cust. Name" dataDxfId="38"/>
@@ -1444,10 +1510,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2E509AE-E534-4C23-8EF6-75215EB6B32D}" name="LuWanna" displayName="LuWanna" ref="A1:M4" totalsRowShown="0">
-  <autoFilter ref="A1:M4" xr:uid="{C2E509AE-E534-4C23-8EF6-75215EB6B32D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M4">
-    <sortCondition ref="J1:J4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2E509AE-E534-4C23-8EF6-75215EB6B32D}" name="LuWanna" displayName="LuWanna" ref="A1:M107" totalsRowShown="0">
+  <autoFilter ref="A1:M107" xr:uid="{C2E509AE-E534-4C23-8EF6-75215EB6B32D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M107">
+    <sortCondition ref="J1:J107"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{687C0256-1CA3-45E6-B447-270F75795071}" name="Quote Number"/>
@@ -1469,10 +1535,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{17D7C0DC-915A-49FC-91FA-EE96535CFF25}" name="Reid" displayName="Reid" ref="A1:M5" totalsRowShown="0" headerRowDxfId="18">
-  <autoFilter ref="A1:M5" xr:uid="{17D7C0DC-915A-49FC-91FA-EE96535CFF25}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M4">
-    <sortCondition descending="1" ref="C1:C4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{17D7C0DC-915A-49FC-91FA-EE96535CFF25}" name="Reid" displayName="Reid" ref="A1:M65" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A1:M65" xr:uid="{17D7C0DC-915A-49FC-91FA-EE96535CFF25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M64">
+    <sortCondition descending="1" ref="C1:C64"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{0AE69FAA-E283-4FEF-9477-2F65C877B517}" name="Quote Number" dataDxfId="17"/>
@@ -1801,7 +1867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M250"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
@@ -1865,7 +1931,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="e" cm="1" vm="1">
-        <f t="array" ref="A2">IF(_xlfn.VSTACK(_xlfn._xlws.FILTER('Tami Knoell'!A2:M499,'Tami Knoell'!A2:A499&lt;&gt;""),_xlfn._xlws.FILTER('Brent Schrader'!A2:M475,'Brent Schrader'!A2:A475&lt;&gt;""),_xlfn._xlws.FILTER('Eric Simpson'!A2:M486,'Eric Simpson'!A2:A486&lt;&gt;""),_xlfn._xlws.FILTER('LuWanna Morris'!A4:M362,'LuWanna Morris'!A4:A362&lt;&gt;""),_xlfn._xlws.FILTER('Reid Kincaid'!A2:M492,'Reid Kincaid'!A2:A492&lt;&gt;""))="","",_xlfn.VSTACK(_xlfn._xlws.FILTER('Tami Knoell'!A2:M499,'Tami Knoell'!A2:A499&lt;&gt;""),_xlfn._xlws.FILTER('Brent Schrader'!A2:M475,'Brent Schrader'!A2:A475&lt;&gt;""),_xlfn._xlws.FILTER('Eric Simpson'!A2:M486,'Eric Simpson'!A2:A486&lt;&gt;""),_xlfn._xlws.FILTER('LuWanna Morris'!A4:M362,'LuWanna Morris'!A4:A362&lt;&gt;""),_xlfn._xlws.FILTER('Reid Kincaid'!A2:M492,'Reid Kincaid'!A2:A492&lt;&gt;"")))</f>
+        <f t="array" ref="A2">IF(_xlfn.VSTACK(_xlfn._xlws.FILTER('Tami Knoell'!A62:M561,'Tami Knoell'!A62:A561&lt;&gt;""),_xlfn._xlws.FILTER('Brent Schrader'!A92:M565,'Brent Schrader'!A92:A565&lt;&gt;""),_xlfn._xlws.FILTER('Eric Simpson'!A77:M562,'Eric Simpson'!A77:A562&lt;&gt;""),_xlfn._xlws.FILTER('LuWanna Morris'!A107:M465,'LuWanna Morris'!A107:A465&lt;&gt;""),_xlfn._xlws.FILTER('Reid Kincaid'!A62:M552,'Reid Kincaid'!A62:A552&lt;&gt;""))="","",_xlfn.VSTACK(_xlfn._xlws.FILTER('Tami Knoell'!A62:M561,'Tami Knoell'!A62:A561&lt;&gt;""),_xlfn._xlws.FILTER('Brent Schrader'!A92:M565,'Brent Schrader'!A92:A565&lt;&gt;""),_xlfn._xlws.FILTER('Eric Simpson'!A77:M562,'Eric Simpson'!A77:A562&lt;&gt;""),_xlfn._xlws.FILTER('LuWanna Morris'!A107:M465,'LuWanna Morris'!A107:A465&lt;&gt;""),_xlfn._xlws.FILTER('Reid Kincaid'!A62:M552,'Reid Kincaid'!A62:A552&lt;&gt;"")))</f>
         <v>#VALUE!</v>
       </c>
       <c r="K2" s="20"/>
@@ -2622,10 +2688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K62" sqref="K2:K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2688,55 +2754,1103 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="15"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="51"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="85"/>
       <c r="K2" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="65"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="83"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="15"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="85"/>
       <c r="K3" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="66"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="83"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="15"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="51"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="85"/>
       <c r="K4" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="L4" s="51"/>
-      <c r="M4" s="65"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="83"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="74"/>
+      <c r="M5" s="83"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="74"/>
+      <c r="M6" s="83"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2">
-        <f>SUM(Tami[Quote Amount])</f>
-        <v>0</v>
-      </c>
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="74"/>
+      <c r="M7" s="83"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H8" s="1"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="74"/>
+      <c r="M8" s="83"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="74"/>
+      <c r="M9" s="83"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="73"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="74"/>
+      <c r="M10" s="83"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="73"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="74"/>
+      <c r="M11" s="83"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="74"/>
+      <c r="M12" s="83"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="74"/>
+      <c r="M13" s="83"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="74"/>
+      <c r="M14" s="83"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="73"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="74"/>
+      <c r="M15" s="83"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="74"/>
+      <c r="M16" s="83"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="74"/>
+      <c r="M17" s="83"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="73"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="74"/>
+      <c r="M18" s="83"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="74"/>
+      <c r="M19" s="83"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="73"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="74"/>
+      <c r="M20" s="83"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="74"/>
+      <c r="M21" s="83"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="73"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="74"/>
+      <c r="M22" s="83"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="73"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="74"/>
+      <c r="M23" s="83"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="74"/>
+      <c r="M24" s="83"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="74"/>
+      <c r="M25" s="83"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="73"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="74"/>
+      <c r="M26" s="83"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="74"/>
+      <c r="M27" s="83"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="74"/>
+      <c r="M28" s="83"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="74"/>
+      <c r="M29" s="83"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="73"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="74"/>
+      <c r="M30" s="83"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="73"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="74"/>
+      <c r="M31" s="83"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="74"/>
+      <c r="M32" s="83"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="74"/>
+      <c r="M33" s="83"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="73"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="74"/>
+      <c r="M34" s="83"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="73"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="74"/>
+      <c r="M35" s="83"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="73"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="74"/>
+      <c r="M36" s="83"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="74"/>
+      <c r="M37" s="83"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="73"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="74"/>
+      <c r="M38" s="83"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="73"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="74"/>
+      <c r="M39" s="83"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="74"/>
+      <c r="M40" s="83"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="74"/>
+      <c r="M41" s="83"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="73"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="74"/>
+      <c r="M42" s="83"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="73"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="74"/>
+      <c r="M43" s="83"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="74"/>
+      <c r="M44" s="83"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="74"/>
+      <c r="M45" s="83"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="73"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="74"/>
+      <c r="M46" s="83"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="73"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="74"/>
+      <c r="M47" s="83"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="73"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="74"/>
+      <c r="M48" s="83"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="74"/>
+      <c r="M49" s="83"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="73"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="74"/>
+      <c r="M50" s="83"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="73"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="74"/>
+      <c r="M51" s="83"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="73"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="74"/>
+      <c r="M52" s="83"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="73"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="74"/>
+      <c r="M53" s="83"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="73"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="74"/>
+      <c r="M54" s="83"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="73"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="74"/>
+      <c r="M55" s="83"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="73"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="85"/>
+      <c r="K56" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="74"/>
+      <c r="M56" s="83"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="73"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="74"/>
+      <c r="M57" s="83"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="73"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="74"/>
+      <c r="M58" s="83"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="73"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="85"/>
+      <c r="K59" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="74"/>
+      <c r="M59" s="83"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="73"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="74"/>
+      <c r="M60" s="83"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="73"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="85"/>
+      <c r="K61" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="74"/>
+      <c r="M61" s="83"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C62" s="15"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="51"/>
+      <c r="M62" s="65"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C63" s="15"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="50"/>
+      <c r="M63" s="66"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C64" s="15"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="51"/>
+      <c r="M64" s="65"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="73"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="77"/>
+      <c r="K65" s="81" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="77"/>
+      <c r="M65" s="82"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="73"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="77"/>
+      <c r="K66" s="81" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="77"/>
+      <c r="M66" s="82"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B69" s="17"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H70" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2748,10 +3862,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="K92" sqref="K2:K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2813,67 +3927,871 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="15"/>
+      <c r="A2" s="86"/>
+      <c r="C2" s="87"/>
       <c r="D2" s="21"/>
       <c r="G2" s="26"/>
-      <c r="I2" s="42"/>
       <c r="K2" s="20" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="15"/>
+      <c r="A3" s="86"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="21"/>
       <c r="G3" s="26"/>
-      <c r="I3" s="42"/>
       <c r="K3" s="20" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="15"/>
+      <c r="A4" s="86"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="21"/>
-      <c r="G4" s="53"/>
-      <c r="I4" s="42"/>
+      <c r="G4" s="26"/>
       <c r="K4" s="20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="15"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="86"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="21"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="42"/>
+      <c r="G5" s="26"/>
       <c r="K5" s="20" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="15"/>
+      <c r="A6" s="86"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="21"/>
       <c r="G6" s="26"/>
-      <c r="I6" s="42"/>
       <c r="K6" s="20" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
+      <c r="A7" s="86"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="21"/>
-      <c r="G7" s="49"/>
+      <c r="G7" s="26"/>
       <c r="K7" s="20" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="21"/>
+      <c r="G8" s="26"/>
+      <c r="K8" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="86"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="21"/>
+      <c r="G9" s="26"/>
+      <c r="K9" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2">
-        <f>SUM(Brent[Quote Amount])</f>
-        <v>0</v>
-      </c>
+      <c r="A10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="21"/>
+      <c r="G10" s="26"/>
+      <c r="K10" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="21"/>
+      <c r="G11" s="26"/>
+      <c r="K11" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="21"/>
+      <c r="G12" s="26"/>
+      <c r="K12" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="21"/>
+      <c r="G13" s="26"/>
+      <c r="K13" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="21"/>
+      <c r="G14" s="26"/>
+      <c r="K14" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="21"/>
+      <c r="G15" s="26"/>
+      <c r="K15" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="21"/>
+      <c r="G16" s="26"/>
+      <c r="K16" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="21"/>
+      <c r="G17" s="26"/>
+      <c r="K17" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="21"/>
+      <c r="G18" s="26"/>
+      <c r="K18" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="21"/>
+      <c r="G19" s="26"/>
+      <c r="K19" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="21"/>
+      <c r="G20" s="26"/>
+      <c r="K20" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="21"/>
+      <c r="G21" s="26"/>
+      <c r="K21" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="21"/>
+      <c r="G22" s="26"/>
+      <c r="K22" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="21"/>
+      <c r="G23" s="26"/>
+      <c r="K23" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="21"/>
+      <c r="G24" s="26"/>
+      <c r="K24" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="21"/>
+      <c r="G25" s="26"/>
+      <c r="K25" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="21"/>
+      <c r="G26" s="26"/>
+      <c r="K26" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="21"/>
+      <c r="G27" s="26"/>
+      <c r="K27" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="21"/>
+      <c r="G28" s="26"/>
+      <c r="K28" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="21"/>
+      <c r="G29" s="26"/>
+      <c r="K29" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="21"/>
+      <c r="G30" s="26"/>
+      <c r="K30" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="86"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="21"/>
+      <c r="G31" s="26"/>
+      <c r="K31" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="21"/>
+      <c r="G32" s="26"/>
+      <c r="K32" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="21"/>
+      <c r="G33" s="26"/>
+      <c r="K33" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="86"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="21"/>
+      <c r="G34" s="26"/>
+      <c r="K34" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="86"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="21"/>
+      <c r="G35" s="26"/>
+      <c r="K35" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="86"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="21"/>
+      <c r="G36" s="26"/>
+      <c r="K36" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="86"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="21"/>
+      <c r="G37" s="26"/>
+      <c r="K37" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="86"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="21"/>
+      <c r="G38" s="26"/>
+      <c r="K38" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="86"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="21"/>
+      <c r="G39" s="26"/>
+      <c r="K39" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="86"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="21"/>
+      <c r="G40" s="26"/>
+      <c r="K40" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="86"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="21"/>
+      <c r="G41" s="26"/>
+      <c r="K41" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="86"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="21"/>
+      <c r="G42" s="26"/>
+      <c r="K42" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="86"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="21"/>
+      <c r="G43" s="26"/>
+      <c r="K43" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="86"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="21"/>
+      <c r="G44" s="26"/>
+      <c r="K44" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="86"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="21"/>
+      <c r="G45" s="26"/>
+      <c r="K45" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="86"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="21"/>
+      <c r="G46" s="26"/>
+      <c r="K46" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="86"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="21"/>
+      <c r="G47" s="26"/>
+      <c r="K47" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="86"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="21"/>
+      <c r="G48" s="26"/>
+      <c r="K48" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="86"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="21"/>
+      <c r="G49" s="26"/>
+      <c r="K49" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="86"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="21"/>
+      <c r="G50" s="26"/>
+      <c r="K50" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="86"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="21"/>
+      <c r="G51" s="26"/>
+      <c r="K51" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="86"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="21"/>
+      <c r="G52" s="26"/>
+      <c r="K52" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="86"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="21"/>
+      <c r="G53" s="26"/>
+      <c r="K53" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="86"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="21"/>
+      <c r="G54" s="26"/>
+      <c r="K54" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="86"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="21"/>
+      <c r="G55" s="26"/>
+      <c r="K55" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="86"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="21"/>
+      <c r="G56" s="26"/>
+      <c r="K56" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="86"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="21"/>
+      <c r="G57" s="26"/>
+      <c r="K57" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="86"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="21"/>
+      <c r="G58" s="26"/>
+      <c r="K58" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="86"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="21"/>
+      <c r="G59" s="26"/>
+      <c r="K59" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="86"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="21"/>
+      <c r="G60" s="26"/>
+      <c r="K60" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="86"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="21"/>
+      <c r="G61" s="26"/>
+      <c r="K61" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="86"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="21"/>
+      <c r="G62" s="26"/>
+      <c r="K62" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="86"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="21"/>
+      <c r="G63" s="26"/>
+      <c r="K63" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="86"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="21"/>
+      <c r="G64" s="26"/>
+      <c r="K64" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="86"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="21"/>
+      <c r="G65" s="26"/>
+      <c r="K65" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="86"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="21"/>
+      <c r="G66" s="26"/>
+      <c r="K66" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="86"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="21"/>
+      <c r="G67" s="26"/>
+      <c r="K67" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="86"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="21"/>
+      <c r="G68" s="26"/>
+      <c r="K68" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="86"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="21"/>
+      <c r="G69" s="26"/>
+      <c r="K69" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="86"/>
+      <c r="C70" s="87"/>
+      <c r="D70" s="21"/>
+      <c r="G70" s="26"/>
+      <c r="K70" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="86"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="21"/>
+      <c r="G71" s="26"/>
+      <c r="K71" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="86"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="21"/>
+      <c r="G72" s="26"/>
+      <c r="K72" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="86"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="21"/>
+      <c r="G73" s="26"/>
+      <c r="K73" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="86"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="21"/>
+      <c r="G74" s="26"/>
+      <c r="K74" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="86"/>
+      <c r="C75" s="87"/>
+      <c r="D75" s="21"/>
+      <c r="G75" s="26"/>
+      <c r="K75" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="86"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="21"/>
+      <c r="G76" s="26"/>
+      <c r="K76" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="86"/>
+      <c r="C77" s="87"/>
+      <c r="D77" s="21"/>
+      <c r="G77" s="26"/>
+      <c r="K77" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="86"/>
+      <c r="C78" s="87"/>
+      <c r="D78" s="21"/>
+      <c r="G78" s="26"/>
+      <c r="K78" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="86"/>
+      <c r="C79" s="87"/>
+      <c r="D79" s="21"/>
+      <c r="G79" s="26"/>
+      <c r="K79" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="86"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="21"/>
+      <c r="G80" s="26"/>
+      <c r="K80" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="86"/>
+      <c r="C81" s="87"/>
+      <c r="D81" s="21"/>
+      <c r="G81" s="26"/>
+      <c r="K81" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="86"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="21"/>
+      <c r="G82" s="26"/>
+      <c r="K82" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="86"/>
+      <c r="C83" s="87"/>
+      <c r="D83" s="21"/>
+      <c r="G83" s="26"/>
+      <c r="K83" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="86"/>
+      <c r="C84" s="87"/>
+      <c r="D84" s="21"/>
+      <c r="G84" s="26"/>
+      <c r="K84" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="86"/>
+      <c r="C85" s="87"/>
+      <c r="D85" s="21"/>
+      <c r="G85" s="26"/>
+      <c r="K85" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="86"/>
+      <c r="C86" s="87"/>
+      <c r="D86" s="21"/>
+      <c r="G86" s="26"/>
+      <c r="K86" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="86"/>
+      <c r="C87" s="87"/>
+      <c r="D87" s="21"/>
+      <c r="G87" s="26"/>
+      <c r="K87" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="86"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="21"/>
+      <c r="G88" s="26"/>
+      <c r="K88" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="86"/>
+      <c r="C89" s="87"/>
+      <c r="D89" s="21"/>
+      <c r="G89" s="26"/>
+      <c r="K89" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="86"/>
+      <c r="C90" s="87"/>
+      <c r="D90" s="21"/>
+      <c r="G90" s="26"/>
+      <c r="K90" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="86"/>
+      <c r="C91" s="87"/>
+      <c r="D91" s="21"/>
+      <c r="G91" s="26"/>
+      <c r="K91" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C92" s="15"/>
+      <c r="D92" s="21"/>
+      <c r="G92" s="26"/>
+      <c r="I92" s="42"/>
+      <c r="K92" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C93" s="15"/>
+      <c r="D93" s="21"/>
+      <c r="G93" s="26"/>
+      <c r="I93" s="42"/>
+      <c r="K93" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C94" s="15"/>
+      <c r="D94" s="21"/>
+      <c r="G94" s="53"/>
+      <c r="I94" s="42"/>
+      <c r="K94" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C95" s="15"/>
+      <c r="D95" s="21"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="52"/>
+      <c r="I95" s="42"/>
+      <c r="K95" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C96" s="15"/>
+      <c r="D96" s="21"/>
+      <c r="G96" s="26"/>
+      <c r="I96" s="42"/>
+      <c r="K96" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C97" s="1"/>
+      <c r="D97" s="21"/>
+      <c r="G97" s="49"/>
+      <c r="K97" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B100" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2885,10 +4803,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2949,68 +4867,1278 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="15"/>
-      <c r="H2"/>
-      <c r="I2" s="57"/>
-      <c r="J2"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="89"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="M2"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="15"/>
-      <c r="H3"/>
-      <c r="I3" s="29"/>
-      <c r="J3"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="89"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
       <c r="K3" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="M3"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="15"/>
-      <c r="G4" s="64"/>
-      <c r="H4"/>
-      <c r="I4" s="57"/>
-      <c r="J4"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="89"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92"/>
       <c r="K4" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="M4"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="44"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="15"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="89"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="45"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="M5"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="15"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="89"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="45"/>
       <c r="G6" s="44"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="92"/>
       <c r="K6" s="32" t="b">
         <v>0</v>
       </c>
       <c r="L6" s="27"/>
       <c r="M6" s="44"/>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="88"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="89"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="44"/>
+    </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1">
-        <f>SUM(Eric[Quote Amount])</f>
-        <v>0</v>
-      </c>
+      <c r="A8" s="88"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="89"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="44"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="88"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="89"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="88"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="89"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="M10" s="44"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="88"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="89"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="27"/>
+      <c r="M11" s="44"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="88"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="89"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="27"/>
+      <c r="M12" s="44"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="88"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="89"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="44"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="88"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="89"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="27"/>
+      <c r="M14" s="44"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="88"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="89"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="27"/>
+      <c r="M15" s="44"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="88"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="89"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="27"/>
+      <c r="M16" s="44"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="88"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="89"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="27"/>
+      <c r="M17" s="44"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="88"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="89"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="27"/>
+      <c r="M18" s="44"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="88"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="89"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="27"/>
+      <c r="M19" s="44"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="88"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="89"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="27"/>
+      <c r="M20" s="44"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="88"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="89"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="27"/>
+      <c r="M21" s="44"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="88"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="89"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="27"/>
+      <c r="M22" s="44"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="88"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="89"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="27"/>
+      <c r="M23" s="44"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="88"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="89"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="27"/>
+      <c r="M24" s="44"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="88"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="89"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="27"/>
+      <c r="M25" s="44"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="88"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="89"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="27"/>
+      <c r="M26" s="44"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="88"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="89"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="27"/>
+      <c r="M27" s="44"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="88"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="89"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="27"/>
+      <c r="M28" s="44"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="88"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="89"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="27"/>
+      <c r="M29" s="44"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="88"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="89"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="27"/>
+      <c r="M30" s="44"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="88"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="89"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="27"/>
+      <c r="M31" s="44"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="88"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="89"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="27"/>
+      <c r="M32" s="44"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="88"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="89"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="27"/>
+      <c r="M33" s="44"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="88"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="89"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="27"/>
+      <c r="M34" s="44"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="88"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="89"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="27"/>
+      <c r="M35" s="44"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="88"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="89"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="27"/>
+      <c r="M36" s="44"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="88"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="89"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="27"/>
+      <c r="M37" s="44"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="88"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="89"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="27"/>
+      <c r="M38" s="44"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="88"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="89"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="27"/>
+      <c r="M39" s="44"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="88"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="89"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="27"/>
+      <c r="M40" s="44"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="88"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="89"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="27"/>
+      <c r="M41" s="44"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="88"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="89"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="27"/>
+      <c r="M42" s="44"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="88"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="89"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="27"/>
+      <c r="M43" s="44"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="88"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="89"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="27"/>
+      <c r="M44" s="44"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="88"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="89"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="27"/>
+      <c r="M45" s="44"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="88"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="89"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="27"/>
+      <c r="M46" s="44"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="88"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="89"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="92"/>
+      <c r="K47" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="27"/>
+      <c r="M47" s="44"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="88"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="89"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="27"/>
+      <c r="M48" s="44"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="88"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="89"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="91"/>
+      <c r="J49" s="92"/>
+      <c r="K49" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="27"/>
+      <c r="M49" s="44"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="88"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="89"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="92"/>
+      <c r="K50" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="27"/>
+      <c r="M50" s="44"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="88"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="89"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="27"/>
+      <c r="M51" s="44"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="88"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="89"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="90"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="27"/>
+      <c r="M52" s="44"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="88"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="89"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="92"/>
+      <c r="K53" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="27"/>
+      <c r="M53" s="44"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="88"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="89"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="92"/>
+      <c r="K54" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="27"/>
+      <c r="M54" s="44"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="88"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="89"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="27"/>
+      <c r="M55" s="44"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="88"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="89"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="90"/>
+      <c r="I56" s="91"/>
+      <c r="J56" s="92"/>
+      <c r="K56" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="27"/>
+      <c r="M56" s="44"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="88"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="89"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="27"/>
+      <c r="M57" s="44"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="88"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="89"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="92"/>
+      <c r="K58" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="27"/>
+      <c r="M58" s="44"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="88"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="89"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="92"/>
+      <c r="K59" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="27"/>
+      <c r="M59" s="44"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="88"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="89"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="91"/>
+      <c r="J60" s="92"/>
+      <c r="K60" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="27"/>
+      <c r="M60" s="44"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="88"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="89"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="91"/>
+      <c r="J61" s="92"/>
+      <c r="K61" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="27"/>
+      <c r="M61" s="44"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="88"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="89"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="92"/>
+      <c r="K62" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="27"/>
+      <c r="M62" s="44"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="88"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="89"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="92"/>
+      <c r="K63" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="27"/>
+      <c r="M63" s="44"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="88"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="89"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="91"/>
+      <c r="J64" s="92"/>
+      <c r="K64" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="27"/>
+      <c r="M64" s="44"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="88"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="89"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="92"/>
+      <c r="K65" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="27"/>
+      <c r="M65" s="44"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="88"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="89"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="92"/>
+      <c r="K66" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="27"/>
+      <c r="M66" s="44"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="88"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="89"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="27"/>
+      <c r="M67" s="44"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="88"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="89"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="90"/>
+      <c r="I68" s="91"/>
+      <c r="J68" s="92"/>
+      <c r="K68" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="27"/>
+      <c r="M68" s="44"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="88"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="89"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="92"/>
+      <c r="K69" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="27"/>
+      <c r="M69" s="44"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="88"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="89"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="90"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="92"/>
+      <c r="K70" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="27"/>
+      <c r="M70" s="44"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="88"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="89"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="90"/>
+      <c r="I71" s="91"/>
+      <c r="J71" s="92"/>
+      <c r="K71" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" s="27"/>
+      <c r="M71" s="44"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="88"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="89"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="90"/>
+      <c r="I72" s="91"/>
+      <c r="J72" s="92"/>
+      <c r="K72" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" s="27"/>
+      <c r="M72" s="44"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="88"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="89"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="91"/>
+      <c r="J73" s="92"/>
+      <c r="K73" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" s="27"/>
+      <c r="M73" s="44"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="88"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="89"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="92"/>
+      <c r="K74" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" s="27"/>
+      <c r="M74" s="44"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="88"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="89"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="90"/>
+      <c r="I75" s="91"/>
+      <c r="J75" s="92"/>
+      <c r="K75" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="27"/>
+      <c r="M75" s="44"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="88"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="89"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="90"/>
+      <c r="I76" s="91"/>
+      <c r="J76" s="92"/>
+      <c r="K76" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="27"/>
+      <c r="M76" s="44"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C77" s="15"/>
+      <c r="H77"/>
+      <c r="I77" s="57"/>
+      <c r="J77"/>
+      <c r="K77" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C78" s="15"/>
+      <c r="H78"/>
+      <c r="I78" s="29"/>
+      <c r="J78"/>
+      <c r="K78" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C79" s="15"/>
+      <c r="G79" s="64"/>
+      <c r="H79"/>
+      <c r="I79" s="57"/>
+      <c r="J79"/>
+      <c r="K79" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C80" s="15"/>
+      <c r="F80" s="45"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C81" s="15"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="27"/>
+      <c r="M81" s="44"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="88"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="93"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="27"/>
+      <c r="M82" s="44"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B84" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3022,10 +6150,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K105" sqref="K2:K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3087,30 +6215,25 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="15"/>
+      <c r="C2" s="87"/>
       <c r="F2" s="21"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="H2" s="24"/>
       <c r="K2" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="15"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3" s="57"/>
-      <c r="J3"/>
+      <c r="C3" s="87"/>
+      <c r="F3" s="21"/>
+      <c r="H3" s="24"/>
       <c r="K3" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
+      <c r="C4" s="87"/>
       <c r="F4" s="21"/>
       <c r="H4" s="24"/>
       <c r="K4" s="20" t="b">
@@ -3118,14 +6241,937 @@
       </c>
       <c r="M4" s="21"/>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="87"/>
+      <c r="F5" s="21"/>
+      <c r="H5" s="24"/>
+      <c r="K5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="87"/>
+      <c r="F6" s="21"/>
+      <c r="H6" s="24"/>
+      <c r="K6" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="21"/>
+    </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2">
-        <f>SUM(C4:C6)</f>
-        <v>0</v>
-      </c>
+      <c r="C7" s="87"/>
+      <c r="F7" s="21"/>
+      <c r="H7" s="24"/>
+      <c r="K7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="87"/>
+      <c r="F8" s="21"/>
+      <c r="H8" s="24"/>
+      <c r="K8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="87"/>
+      <c r="F9" s="21"/>
+      <c r="H9" s="24"/>
+      <c r="K9" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="87"/>
+      <c r="F10" s="21"/>
+      <c r="H10" s="24"/>
+      <c r="K10" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="21"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="87"/>
+      <c r="F11" s="21"/>
+      <c r="H11" s="24"/>
+      <c r="K11" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="87"/>
+      <c r="F12" s="21"/>
+      <c r="H12" s="24"/>
+      <c r="K12" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="87"/>
+      <c r="F13" s="21"/>
+      <c r="H13" s="24"/>
+      <c r="K13" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="87"/>
+      <c r="F14" s="21"/>
+      <c r="H14" s="24"/>
+      <c r="K14" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="21"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="87"/>
+      <c r="F15" s="21"/>
+      <c r="H15" s="24"/>
+      <c r="K15" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="87"/>
+      <c r="F16" s="21"/>
+      <c r="H16" s="24"/>
+      <c r="K16" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="87"/>
+      <c r="F17" s="21"/>
+      <c r="H17" s="24"/>
+      <c r="K17" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="87"/>
+      <c r="F18" s="21"/>
+      <c r="H18" s="24"/>
+      <c r="K18" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="87"/>
+      <c r="F19" s="21"/>
+      <c r="H19" s="24"/>
+      <c r="K19" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C20" s="87"/>
+      <c r="F20" s="21"/>
+      <c r="H20" s="24"/>
+      <c r="K20" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C21" s="87"/>
+      <c r="F21" s="21"/>
+      <c r="H21" s="24"/>
+      <c r="K21" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C22" s="87"/>
+      <c r="F22" s="21"/>
+      <c r="H22" s="24"/>
+      <c r="K22" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="21"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C23" s="87"/>
+      <c r="F23" s="21"/>
+      <c r="H23" s="24"/>
+      <c r="K23" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C24" s="87"/>
+      <c r="F24" s="21"/>
+      <c r="H24" s="24"/>
+      <c r="K24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="21"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C25" s="87"/>
+      <c r="F25" s="21"/>
+      <c r="H25" s="24"/>
+      <c r="K25" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C26" s="87"/>
+      <c r="F26" s="21"/>
+      <c r="H26" s="24"/>
+      <c r="K26" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="21"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C27" s="87"/>
+      <c r="F27" s="21"/>
+      <c r="H27" s="24"/>
+      <c r="K27" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="21"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C28" s="87"/>
+      <c r="F28" s="21"/>
+      <c r="H28" s="24"/>
+      <c r="K28" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="21"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C29" s="87"/>
+      <c r="F29" s="21"/>
+      <c r="H29" s="24"/>
+      <c r="K29" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="21"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C30" s="87"/>
+      <c r="F30" s="21"/>
+      <c r="H30" s="24"/>
+      <c r="K30" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C31" s="87"/>
+      <c r="F31" s="21"/>
+      <c r="H31" s="24"/>
+      <c r="K31" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="21"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C32" s="87"/>
+      <c r="F32" s="21"/>
+      <c r="H32" s="24"/>
+      <c r="K32" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="21"/>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C33" s="87"/>
+      <c r="F33" s="21"/>
+      <c r="H33" s="24"/>
+      <c r="K33" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="21"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C34" s="87"/>
+      <c r="F34" s="21"/>
+      <c r="H34" s="24"/>
+      <c r="K34" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="21"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C35" s="87"/>
+      <c r="F35" s="21"/>
+      <c r="H35" s="24"/>
+      <c r="K35" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="21"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C36" s="87"/>
+      <c r="F36" s="21"/>
+      <c r="H36" s="24"/>
+      <c r="K36" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="21"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C37" s="87"/>
+      <c r="F37" s="21"/>
+      <c r="H37" s="24"/>
+      <c r="K37" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="21"/>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C38" s="87"/>
+      <c r="F38" s="21"/>
+      <c r="H38" s="24"/>
+      <c r="K38" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" s="21"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C39" s="87"/>
+      <c r="F39" s="21"/>
+      <c r="H39" s="24"/>
+      <c r="K39" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="21"/>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C40" s="87"/>
+      <c r="F40" s="21"/>
+      <c r="H40" s="24"/>
+      <c r="K40" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" s="21"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C41" s="87"/>
+      <c r="F41" s="21"/>
+      <c r="H41" s="24"/>
+      <c r="K41" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" s="21"/>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C42" s="87"/>
+      <c r="F42" s="21"/>
+      <c r="H42" s="24"/>
+      <c r="K42" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" s="21"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C43" s="87"/>
+      <c r="F43" s="21"/>
+      <c r="H43" s="24"/>
+      <c r="K43" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="21"/>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C44" s="87"/>
+      <c r="F44" s="21"/>
+      <c r="H44" s="24"/>
+      <c r="K44" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" s="21"/>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C45" s="87"/>
+      <c r="F45" s="21"/>
+      <c r="H45" s="24"/>
+      <c r="K45" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" s="21"/>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C46" s="87"/>
+      <c r="F46" s="21"/>
+      <c r="H46" s="24"/>
+      <c r="K46" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="21"/>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C47" s="87"/>
+      <c r="F47" s="21"/>
+      <c r="H47" s="24"/>
+      <c r="K47" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="21"/>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C48" s="87"/>
+      <c r="F48" s="21"/>
+      <c r="H48" s="24"/>
+      <c r="K48" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="21"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C49" s="87"/>
+      <c r="F49" s="21"/>
+      <c r="H49" s="24"/>
+      <c r="K49" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" s="21"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C50" s="87"/>
+      <c r="F50" s="21"/>
+      <c r="H50" s="24"/>
+      <c r="K50" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="21"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C51" s="87"/>
+      <c r="F51" s="21"/>
+      <c r="H51" s="24"/>
+      <c r="K51" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" s="21"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C52" s="87"/>
+      <c r="F52" s="21"/>
+      <c r="H52" s="24"/>
+      <c r="K52" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="21"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C53" s="87"/>
+      <c r="F53" s="21"/>
+      <c r="H53" s="24"/>
+      <c r="K53" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" s="21"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C54" s="87"/>
+      <c r="F54" s="21"/>
+      <c r="H54" s="24"/>
+      <c r="K54" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" s="21"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C55" s="87"/>
+      <c r="F55" s="21"/>
+      <c r="H55" s="24"/>
+      <c r="K55" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" s="21"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C56" s="87"/>
+      <c r="F56" s="21"/>
+      <c r="H56" s="24"/>
+      <c r="K56" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" s="21"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C57" s="87"/>
+      <c r="F57" s="21"/>
+      <c r="H57" s="24"/>
+      <c r="K57" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" s="21"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C58" s="87"/>
+      <c r="F58" s="21"/>
+      <c r="H58" s="24"/>
+      <c r="K58" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" s="21"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C59" s="87"/>
+      <c r="F59" s="21"/>
+      <c r="H59" s="24"/>
+      <c r="K59" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" s="21"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C60" s="87"/>
+      <c r="F60" s="21"/>
+      <c r="H60" s="24"/>
+      <c r="K60" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" s="21"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C61" s="87"/>
+      <c r="F61" s="21"/>
+      <c r="H61" s="24"/>
+      <c r="K61" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" s="21"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C62" s="87"/>
+      <c r="F62" s="21"/>
+      <c r="H62" s="24"/>
+      <c r="K62" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" s="21"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C63" s="87"/>
+      <c r="F63" s="21"/>
+      <c r="H63" s="24"/>
+      <c r="K63" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" s="21"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C64" s="87"/>
+      <c r="F64" s="21"/>
+      <c r="H64" s="24"/>
+      <c r="K64" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" s="21"/>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C65" s="87"/>
+      <c r="F65" s="21"/>
+      <c r="H65" s="24"/>
+      <c r="K65" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" s="21"/>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C66" s="87"/>
+      <c r="F66" s="21"/>
+      <c r="H66" s="24"/>
+      <c r="K66" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" s="21"/>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C67" s="87"/>
+      <c r="F67" s="21"/>
+      <c r="H67" s="24"/>
+      <c r="K67" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" s="21"/>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C68" s="87"/>
+      <c r="F68" s="21"/>
+      <c r="H68" s="24"/>
+      <c r="K68" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" s="21"/>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C69" s="87"/>
+      <c r="F69" s="21"/>
+      <c r="H69" s="24"/>
+      <c r="K69" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" s="21"/>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C70" s="87"/>
+      <c r="F70" s="21"/>
+      <c r="H70" s="24"/>
+      <c r="K70" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" s="21"/>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C71" s="87"/>
+      <c r="F71" s="21"/>
+      <c r="H71" s="24"/>
+      <c r="K71" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" s="21"/>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C72" s="87"/>
+      <c r="F72" s="21"/>
+      <c r="H72" s="24"/>
+      <c r="K72" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" s="21"/>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C73" s="87"/>
+      <c r="F73" s="21"/>
+      <c r="H73" s="24"/>
+      <c r="K73" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" s="21"/>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C74" s="87"/>
+      <c r="F74" s="21"/>
+      <c r="H74" s="24"/>
+      <c r="K74" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" s="21"/>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C75" s="87"/>
+      <c r="F75" s="21"/>
+      <c r="H75" s="24"/>
+      <c r="K75" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" s="21"/>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C76" s="87"/>
+      <c r="F76" s="21"/>
+      <c r="H76" s="24"/>
+      <c r="K76" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" s="21"/>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C77" s="87"/>
+      <c r="F77" s="21"/>
+      <c r="H77" s="24"/>
+      <c r="K77" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" s="21"/>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C78" s="87"/>
+      <c r="F78" s="21"/>
+      <c r="H78" s="24"/>
+      <c r="K78" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" s="21"/>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C79" s="87"/>
+      <c r="F79" s="21"/>
+      <c r="H79" s="24"/>
+      <c r="K79" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" s="21"/>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C80" s="87"/>
+      <c r="F80" s="21"/>
+      <c r="H80" s="24"/>
+      <c r="K80" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" s="21"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C81" s="87"/>
+      <c r="F81" s="21"/>
+      <c r="H81" s="24"/>
+      <c r="K81" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" s="21"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C82" s="87"/>
+      <c r="F82" s="21"/>
+      <c r="H82" s="24"/>
+      <c r="K82" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" s="21"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C83" s="87"/>
+      <c r="F83" s="21"/>
+      <c r="H83" s="24"/>
+      <c r="K83" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" s="21"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C84" s="87"/>
+      <c r="F84" s="21"/>
+      <c r="H84" s="24"/>
+      <c r="K84" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" s="21"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C85" s="87"/>
+      <c r="F85" s="21"/>
+      <c r="H85" s="24"/>
+      <c r="K85" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" s="21"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C86" s="87"/>
+      <c r="F86" s="21"/>
+      <c r="H86" s="24"/>
+      <c r="K86" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" s="21"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C87" s="87"/>
+      <c r="F87" s="21"/>
+      <c r="H87" s="24"/>
+      <c r="K87" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" s="21"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C88" s="87"/>
+      <c r="F88" s="21"/>
+      <c r="H88" s="24"/>
+      <c r="K88" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" s="21"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C89" s="87"/>
+      <c r="F89" s="21"/>
+      <c r="H89" s="24"/>
+      <c r="K89" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" s="21"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C90" s="87"/>
+      <c r="F90" s="21"/>
+      <c r="H90" s="24"/>
+      <c r="K90" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" s="21"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C91" s="87"/>
+      <c r="F91" s="21"/>
+      <c r="H91" s="24"/>
+      <c r="K91" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" s="21"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C92" s="87"/>
+      <c r="F92" s="21"/>
+      <c r="H92" s="24"/>
+      <c r="K92" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" s="21"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C93" s="87"/>
+      <c r="F93" s="21"/>
+      <c r="H93" s="24"/>
+      <c r="K93" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" s="21"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C94" s="87"/>
+      <c r="F94" s="21"/>
+      <c r="H94" s="24"/>
+      <c r="K94" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" s="21"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C95" s="87"/>
+      <c r="F95" s="21"/>
+      <c r="H95" s="24"/>
+      <c r="K95" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" s="21"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C96" s="87"/>
+      <c r="F96" s="21"/>
+      <c r="H96" s="24"/>
+      <c r="K96" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" s="21"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C97" s="87"/>
+      <c r="F97" s="21"/>
+      <c r="H97" s="24"/>
+      <c r="K97" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" s="21"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C98" s="87"/>
+      <c r="F98" s="21"/>
+      <c r="H98" s="24"/>
+      <c r="K98" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" s="21"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C99" s="87"/>
+      <c r="F99" s="21"/>
+      <c r="H99" s="24"/>
+      <c r="K99" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" s="21"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C100" s="87"/>
+      <c r="F100" s="21"/>
+      <c r="H100" s="24"/>
+      <c r="K100" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" s="21"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C101" s="87"/>
+      <c r="F101" s="21"/>
+      <c r="H101" s="24"/>
+      <c r="K101" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" s="21"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C102" s="87"/>
+      <c r="F102" s="21"/>
+      <c r="H102" s="24"/>
+      <c r="K102" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" s="21"/>
+    </row>
+    <row r="103" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C103" s="87"/>
+      <c r="F103" s="21"/>
+      <c r="H103" s="24"/>
+      <c r="K103" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" s="21"/>
+    </row>
+    <row r="104" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C104" s="87"/>
+      <c r="F104" s="21"/>
+      <c r="H104" s="24"/>
+      <c r="K104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" s="21"/>
+    </row>
+    <row r="105" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C105" s="15"/>
+      <c r="F105" s="21"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" s="3"/>
+    </row>
+    <row r="106" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C106" s="15"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106" s="57"/>
+      <c r="J106"/>
+      <c r="K106" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" s="3"/>
+    </row>
+    <row r="107" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C107" s="1"/>
+      <c r="F107" s="21"/>
+      <c r="H107" s="24"/>
+      <c r="K107" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3137,10 +7183,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K62" sqref="K2:K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3202,65 +7248,1079 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C2"/>
-      <c r="D2" s="3"/>
-      <c r="F2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="102"/>
       <c r="K2" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M2"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C3"/>
-      <c r="D3" s="3"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="64"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="102"/>
       <c r="K3" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M3"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="103"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C4"/>
-      <c r="D4" s="3"/>
-      <c r="F4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="102"/>
       <c r="K4" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="M4"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="103"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C5"/>
-      <c r="D5" s="3"/>
-      <c r="F5" s="58"/>
-      <c r="H5" s="59"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="101"/>
       <c r="I5" s="60"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="63"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="95"/>
+      <c r="M5" s="103"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="95"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1">
-        <f>SUM(Reid[Quote Amount])</f>
-        <v>0</v>
-      </c>
+      <c r="A7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="95"/>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="94"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="95"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="94"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="95"/>
+      <c r="M9" s="103"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="94"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="95"/>
+      <c r="M10" s="103"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="94"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="95"/>
+      <c r="M11" s="103"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="94"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="95"/>
+      <c r="M12" s="103"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="94"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="95"/>
+      <c r="M13" s="103"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="94"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="95"/>
+      <c r="M14" s="103"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="94"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="95"/>
+      <c r="M15" s="103"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="94"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="95"/>
+      <c r="M16" s="103"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="95"/>
+      <c r="M17" s="103"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="94"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="95"/>
+      <c r="M18" s="103"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="94"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="95"/>
+      <c r="M19" s="103"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="94"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="95"/>
+      <c r="M20" s="103"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="95"/>
+      <c r="M21" s="103"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="94"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="95"/>
+      <c r="M22" s="103"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="94"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="95"/>
+      <c r="M23" s="103"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="94"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="95"/>
+      <c r="M24" s="103"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="94"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="95"/>
+      <c r="M25" s="103"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="94"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="95"/>
+      <c r="M26" s="103"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="94"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="95"/>
+      <c r="M27" s="103"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="95"/>
+      <c r="M28" s="103"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="94"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="95"/>
+      <c r="M29" s="103"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="94"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="95"/>
+      <c r="M30" s="103"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="94"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="95"/>
+      <c r="M31" s="103"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="94"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="95"/>
+      <c r="M32" s="103"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="94"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="95"/>
+      <c r="M33" s="103"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="94"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="95"/>
+      <c r="M34" s="103"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="94"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="95"/>
+      <c r="M35" s="103"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="94"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="95"/>
+      <c r="M36" s="103"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="94"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="95"/>
+      <c r="M37" s="103"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="94"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="95"/>
+      <c r="M38" s="103"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="94"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="95"/>
+      <c r="M39" s="103"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="94"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="95"/>
+      <c r="M40" s="103"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="94"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="95"/>
+      <c r="M41" s="103"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="94"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="95"/>
+      <c r="M42" s="103"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="94"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="95"/>
+      <c r="M43" s="103"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="94"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="95"/>
+      <c r="M44" s="103"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="94"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="95"/>
+      <c r="M45" s="103"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="94"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="95"/>
+      <c r="M46" s="103"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="94"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="95"/>
+      <c r="M47" s="103"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="94"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="95"/>
+      <c r="M48" s="103"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="94"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="95"/>
+      <c r="M49" s="103"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="94"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="95"/>
+      <c r="M50" s="103"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="94"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="102"/>
+      <c r="K51" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="95"/>
+      <c r="M51" s="103"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="94"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="95"/>
+      <c r="M52" s="103"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="94"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="95"/>
+      <c r="M53" s="103"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="94"/>
+      <c r="B54" s="95"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="102"/>
+      <c r="K54" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="95"/>
+      <c r="M54" s="103"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="94"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="95"/>
+      <c r="M55" s="103"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="94"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="95"/>
+      <c r="M56" s="103"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="94"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="102"/>
+      <c r="K57" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="95"/>
+      <c r="M57" s="103"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="94"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="102"/>
+      <c r="K58" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="95"/>
+      <c r="M58" s="103"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="94"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="102"/>
+      <c r="K59" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="95"/>
+      <c r="M59" s="103"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="94"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="100"/>
+      <c r="H60" s="101"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="102"/>
+      <c r="K60" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="95"/>
+      <c r="M60" s="103"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="94"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="101"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="95"/>
+      <c r="M61" s="103"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C62"/>
+      <c r="D62" s="3"/>
+      <c r="F62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C63"/>
+      <c r="D63" s="3"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="64"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C64"/>
+      <c r="D64" s="3"/>
+      <c r="F64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C65"/>
+      <c r="D65" s="3"/>
+      <c r="F65" s="58"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="63"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="43"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B67" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3275,7 +8335,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3292,33 +8352,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <f>COUNTA(LuWanna[Quote Number])</f>
@@ -3351,7 +8411,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <f>COUNTA(Brent[Quote Number])</f>
@@ -3384,14 +8444,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <f>COUNTA(Reid[Quote Number])</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>COUNTA(_xlfn.UNIQUE('Reid Kincaid'!B2:B5))</f>
+        <f>COUNTA(_xlfn.UNIQUE('Reid Kincaid'!B2:B65))</f>
         <v>1</v>
       </c>
       <c r="D4" s="1">
@@ -3417,7 +8477,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <f>COUNTA(Eric[Quote Number])</f>
@@ -3483,7 +8543,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="11">
         <f>SUBTOTAL(109,B2:B6)</f>
@@ -3526,7 +8586,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <f>COUNTIF('Master Allocation'!J2:J77, "Won")</f>
@@ -3537,7 +8597,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="14" t="e">
         <f>_xlfn.PERCENTOF(C10,B7)</f>
@@ -3548,7 +8608,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="15">
         <f>F7</f>
@@ -3559,7 +8619,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <f>COUNTIFS('Master Allocation'!J:J, "Won", 'Master Allocation'!K:K, "TRUE")</f>
@@ -3570,18 +8630,21 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="34" t="e">
         <f>_xlfn.PERCENTOF(C13,B7)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="D14" s="104" t="s">
+        <v>36</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="15">
         <f>G7</f>
@@ -3595,8 +8658,9 @@
     <row r="24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>